--- a/biology/Zoologie/Amygdalops/Amygdalops.xlsx
+++ b/biology/Zoologie/Amygdalops/Amygdalops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amygdalops est un genre d'insectes diptères de la famille des Anthomyzidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (12 janvier 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (12 janvier 2019) :
 Amygdalops acer Roháček, 2004
-Amygdalops curtisi Roháček, 2008[3],[4]
-Amygdalops cuspidatus  Roháček, 2008[4],[3]
+Amygdalops curtisi Roháček, 2008,
+Amygdalops cuspidatus  Roháček, 2008,
 Amygdalops geniculatus Meijere, 1916
 Amygdalops lineola Meijere, 1916
 Amygdalops major Rohacek, 2004
@@ -557,7 +571,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lamb, 1914 : The Percy Sladen Trust expedition to the Indian Ocean in 1905, under the leadership of Mr. J. Stanley Gardiner, M.A. Vol. 5, No. XV. – Diptera: Heteroneuridae, Ortalidae, Trypetidae, Sepsidae, Micropezidae, Drosophilidae, Geomyzidae, Milichidae). Transactions of the Linnean Society of London, sér. 2-Zoology, vol. 16, n. 1, pp. 307–372 (en).</t>
         </is>
